--- a/Ulatina/X - Cuatrimestre/Probabilidad y Estadistica/Semanas/3/Medidas de posición central y variabilidad.xlsx
+++ b/Ulatina/X - Cuatrimestre/Probabilidad y Estadistica/Semanas/3/Medidas de posición central y variabilidad.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\GitHub\LaptopToPC\Ulatina\X - Cuatrimestre\Probabilidad y Estadistica\Semanas\3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian Vargas\Documents\GitHub\LaptopToPC\Ulatina\X - Cuatrimestre\Probabilidad y Estadistica\Semanas\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579B16BD-7954-44C1-B214-4445440F2E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4438008E-AD68-4AFD-96A1-D809212A3323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio1" sheetId="1" r:id="rId1"/>
     <sheet name="Ejercicio2" sheetId="2" r:id="rId2"/>
     <sheet name="Ejercicio3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
   <si>
     <t>Estudiante</t>
   </si>
@@ -167,6 +168,18 @@
       </rPr>
       <t>&lt;mediana&lt;moda</t>
     </r>
+  </si>
+  <si>
+    <t>Columna2</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Coefieciente de Variacion</t>
   </si>
 </sst>
 </file>
@@ -267,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -296,9 +309,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -306,6 +316,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,29 +609,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -625,7 +646,7 @@
         <v>28.833333333333332</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -643,7 +664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -658,7 +679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -666,7 +687,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -674,19 +695,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>25</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>7</v>
       </c>
@@ -701,7 +722,7 @@
         <v>33.424242424242372</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>8</v>
       </c>
@@ -716,7 +737,7 @@
         <v>5.7813702894938643</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>9</v>
       </c>
@@ -731,7 +752,7 @@
         <v>20.050995223678143</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>10</v>
       </c>
@@ -739,7 +760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>11</v>
       </c>
@@ -747,7 +768,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>12</v>
       </c>
@@ -769,16 +790,16 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,7 +811,7 @@
       </c>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -799,7 +820,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -809,11 +830,11 @@
       <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>28.833333333333332</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -823,11 +844,11 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>1.6689378464620936</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -837,11 +858,11 @@
       <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="12">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -851,11 +872,11 @@
       <c r="E6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="12">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -865,11 +886,11 @@
       <c r="E7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="13">
-        <v>5.7813702894938643</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7" s="12">
+        <v>5.7813702894938599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -879,11 +900,11 @@
       <c r="E8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>33.424242424242372</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -893,11 +914,11 @@
       <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>2.1936401917131958</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -907,11 +928,11 @@
       <c r="E10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>1.3661287386995402</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -921,11 +942,11 @@
       <c r="E11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -935,11 +956,11 @@
       <c r="E12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="12">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -949,33 +970,33 @@
       <c r="E13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="12">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>346</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="15">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <f>(F7/F3)*100</f>
-        <v>20.050995223678143</v>
+        <v>20.050995223678129</v>
       </c>
     </row>
   </sheetData>
@@ -988,19 +1009,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>40</v>
       </c>
@@ -1009,12 +1030,12 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>65</v>
       </c>
@@ -1024,14 +1045,14 @@
       <c r="E3" s="10">
         <v>66</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>85</v>
       </c>
@@ -1041,9 +1062,9 @@
       <c r="E4" s="2">
         <v>4.8762462794425971</v>
       </c>
-      <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>75</v>
       </c>
@@ -1053,14 +1074,14 @@
       <c r="E5" s="10">
         <v>62.5</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>90</v>
       </c>
@@ -1070,37 +1091,37 @@
       <c r="E6" s="10">
         <v>60</v>
       </c>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>60</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>15.420044674960502</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>60</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>237.77777777777777</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>60</v>
       </c>
@@ -1111,7 +1132,7 @@
         <v>-0.47274481239783706</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>75</v>
       </c>
@@ -1122,7 +1143,7 @@
         <v>-6.8184100067242796E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>20</v>
       </c>
@@ -1130,7 +1151,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>21</v>
       </c>
@@ -1138,7 +1159,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>22</v>
       </c>
@@ -1146,7 +1167,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>23</v>
       </c>
@@ -1154,7 +1175,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="6" t="s">
         <v>24</v>
       </c>
@@ -1162,11 +1183,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <f>(E7/E3)*100</f>
         <v>23.363704052970458</v>
       </c>
@@ -1175,4 +1196,353 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68698E1F-0EA0-4AB4-8363-393074AE9285}">
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2447</v>
+      </c>
+      <c r="B2">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3088</v>
+      </c>
+      <c r="B3">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2669</v>
+      </c>
+      <c r="B4">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2901</v>
+      </c>
+      <c r="B5">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3034</v>
+      </c>
+      <c r="B6">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2574</v>
+      </c>
+      <c r="B7">
+        <v>2081</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="18"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2792</v>
+      </c>
+      <c r="B8">
+        <v>2506</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1981</v>
+      </c>
+      <c r="B9">
+        <v>1683</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="19">
+        <v>2638.5833333333335</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="19">
+        <v>2519.0833333333335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2600</v>
+      </c>
+      <c r="B10">
+        <v>2809</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="19">
+        <v>132.77210244199918</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="19">
+        <v>180.73752349467981</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2248</v>
+      </c>
+      <c r="B11">
+        <v>3469</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="19">
+        <v>2634.5</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="19">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1875</v>
+      </c>
+      <c r="B12">
+        <v>1503</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3454</v>
+      </c>
+      <c r="B13">
+        <v>2517</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="19">
+        <v>459.93605451456477</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="19">
+        <v>626.09314705391819</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I14" s="16"/>
+      <c r="J14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="19">
+        <v>211541.17424242469</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="19">
+        <v>391992.62878787925</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I15" s="16"/>
+      <c r="J15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="19">
+        <v>-0.28593515305104455</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="19">
+        <v>-0.95043429156221793</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I16" s="16"/>
+      <c r="J16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="19">
+        <v>-8.9730396208656832E-2</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="19">
+        <v>-0.25375210988292879</v>
+      </c>
+    </row>
+    <row r="17" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I17" s="16"/>
+      <c r="J17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="19">
+        <v>1579</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="19">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="18" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I18" s="16"/>
+      <c r="J18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="19">
+        <v>1875</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="19">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="19" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I19" s="16"/>
+      <c r="J19" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="19">
+        <v>3454</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="19">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="20" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I20" s="16"/>
+      <c r="J20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="19">
+        <v>31663</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="19">
+        <v>30229</v>
+      </c>
+    </row>
+    <row r="21" spans="9:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="17"/>
+      <c r="J21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="20">
+        <v>12</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" s="21">
+        <f>(K9/K13)*100</f>
+        <v>573.68482149506667</v>
+      </c>
+      <c r="L24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" s="21">
+        <f>(M9/M13)*100</f>
+        <v>402.34960966860632</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Ulatina/X - Cuatrimestre/Probabilidad y Estadistica/Semanas/3/Medidas de posición central y variabilidad.xlsx
+++ b/Ulatina/X - Cuatrimestre/Probabilidad y Estadistica/Semanas/3/Medidas de posición central y variabilidad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian Vargas\Documents\GitHub\LaptopToPC\Ulatina\X - Cuatrimestre\Probabilidad y Estadistica\Semanas\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4438008E-AD68-4AFD-96A1-D809212A3323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BC3423-2CD7-4A41-94D7-DE0F2807A18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20520" yWindow="4560" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="36">
   <si>
     <t>Estudiante</t>
   </si>
@@ -280,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -313,20 +313,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,7 +607,7 @@
   <dimension ref="B1:G13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,10 +623,10 @@
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="14"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
@@ -702,10 +699,10 @@
       <c r="C7" s="1">
         <v>25</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
@@ -986,7 +983,7 @@
       <c r="E15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="14">
         <v>12</v>
       </c>
     </row>
@@ -1007,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,9 +1016,10 @@
     <col min="5" max="5" width="21.140625" customWidth="1"/>
     <col min="7" max="7" width="18.140625" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>40</v>
       </c>
@@ -1030,12 +1028,12 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>65</v>
       </c>
@@ -1052,7 +1050,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>85</v>
       </c>
@@ -1064,7 +1062,7 @@
       </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>75</v>
       </c>
@@ -1081,7 +1079,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>90</v>
       </c>
@@ -1093,7 +1091,7 @@
       </c>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>60</v>
       </c>
@@ -1110,7 +1108,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>60</v>
       </c>
@@ -1121,7 +1119,7 @@
         <v>237.77777777777777</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>60</v>
       </c>
@@ -1132,7 +1130,7 @@
         <v>-0.47274481239783706</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>75</v>
       </c>
@@ -1143,15 +1141,19 @@
         <v>-6.8184100067242796E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>21</v>
       </c>
@@ -1159,37 +1161,138 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="16">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="1">
         <v>660</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="16">
+        <v>4.8762462794425971</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="16">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D17" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="12">
         <f>(E7/E3)*100</f>
         <v>23.363704052970458</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="16">
+        <v>15.420044674960502</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="16">
+        <v>237.77777777777777</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="16">
+        <v>-0.47274481239783706</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="16">
+        <v>-6.8184100067242796E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="16">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1269,15 +1372,15 @@
       <c r="B7">
         <v>2081</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="18"/>
+      <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1286,11 +1389,6 @@
       <c r="B8">
         <v>2506</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1299,17 +1397,16 @@
       <c r="B9">
         <v>1683</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16" t="s">
+      <c r="J9" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="16">
         <v>2638.5833333333335</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="16">
         <v>2519.0833333333335</v>
       </c>
     </row>
@@ -1320,17 +1417,16 @@
       <c r="B10">
         <v>2809</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16" t="s">
+      <c r="J10" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="16">
         <v>132.77210244199918</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="16">
         <v>180.73752349467981</v>
       </c>
     </row>
@@ -1341,17 +1437,16 @@
       <c r="B11">
         <v>3469</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16" t="s">
+      <c r="J11" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="16">
         <v>2634.5</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="16">
         <v>2624</v>
       </c>
     </row>
@@ -1362,17 +1457,16 @@
       <c r="B12">
         <v>1503</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16" t="s">
+      <c r="J12" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="19" t="e">
+      <c r="K12" s="16" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="19" t="e">
+      <c r="M12" s="16" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -1383,137 +1477,129 @@
       <c r="B13">
         <v>2517</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16" t="s">
+      <c r="J13" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="16">
         <v>459.93605451456477</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="L13" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="16">
         <v>626.09314705391819</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I14" s="16"/>
-      <c r="J14" s="16" t="s">
+      <c r="J14" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="16">
         <v>211541.17424242469</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="L14" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="16">
         <v>391992.62878787925</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I15" s="16"/>
-      <c r="J15" s="16" t="s">
+      <c r="J15" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="16">
         <v>-0.28593515305104455</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15" s="16">
         <v>-0.95043429156221793</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I16" s="16"/>
-      <c r="J16" s="16" t="s">
+      <c r="J16" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="16">
         <v>-8.9730396208656832E-2</v>
       </c>
-      <c r="L16" s="16" t="s">
+      <c r="L16" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M16" s="16">
         <v>-0.25375210988292879</v>
       </c>
     </row>
     <row r="17" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I17" s="16"/>
-      <c r="J17" s="16" t="s">
+      <c r="J17" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="16">
         <v>1579</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="L17" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="16">
         <v>1966</v>
       </c>
     </row>
     <row r="18" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I18" s="16"/>
-      <c r="J18" s="16" t="s">
+      <c r="J18" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="16">
         <v>1875</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L18" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="16">
         <v>1503</v>
       </c>
     </row>
     <row r="19" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I19" s="16"/>
-      <c r="J19" s="16" t="s">
+      <c r="J19" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="16">
         <v>3454</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="L19" t="s">
         <v>22</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="16">
         <v>3469</v>
       </c>
     </row>
     <row r="20" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I20" s="16"/>
-      <c r="J20" s="16" t="s">
+      <c r="J20" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="16">
         <v>31663</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="L20" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="16">
         <v>30229</v>
       </c>
     </row>
     <row r="21" spans="9:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="17"/>
-      <c r="J21" s="17" t="s">
+      <c r="I21" s="6"/>
+      <c r="J21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K21" s="17">
         <v>12</v>
       </c>
-      <c r="L21" s="17" t="s">
+      <c r="L21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="20">
+      <c r="M21" s="17">
         <v>12</v>
       </c>
     </row>
@@ -1529,14 +1615,14 @@
       <c r="J24" t="s">
         <v>35</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="16">
         <f>(K9/K13)*100</f>
         <v>573.68482149506667</v>
       </c>
       <c r="L24" t="s">
         <v>35</v>
       </c>
-      <c r="M24" s="21">
+      <c r="M24" s="16">
         <f>(M9/M13)*100</f>
         <v>402.34960966860632</v>
       </c>

--- a/Ulatina/X - Cuatrimestre/Probabilidad y Estadistica/Semanas/3/Medidas de posición central y variabilidad.xlsx
+++ b/Ulatina/X - Cuatrimestre/Probabilidad y Estadistica/Semanas/3/Medidas de posición central y variabilidad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian Vargas\Documents\GitHub\LaptopToPC\Ulatina\X - Cuatrimestre\Probabilidad y Estadistica\Semanas\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BC3423-2CD7-4A41-94D7-DE0F2807A18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AF8119-FBDC-4421-9714-4FB459B13EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="4560" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio1" sheetId="1" r:id="rId1"/>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
